--- a/Phonex_interface/src/test/resources/rest_info.xlsx
+++ b/Phonex_interface/src/test/resources/rest_info.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9540" activeTab="1"/>
+    <workbookView activeTab="1" windowHeight="5196" windowWidth="17928" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="api_info" sheetId="1" r:id="rId1"/>
-    <sheet name="request_data" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="api_info" r:id="rId1" sheetId="1"/>
+    <sheet name="request_data" r:id="rId2" sheetId="2"/>
+    <sheet name="Sheet1" r:id="rId3" sheetId="3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">request_data!$A$1:$F$12</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">request_data!$A$1:$F$12</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
   <oleSize ref="A1:D17"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="82">
   <si>
     <t>api编号</t>
   </si>
@@ -227,6 +227,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>123456</t>
@@ -244,6 +245,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>)","expectedQueryRereslt":"1"}]</t>
@@ -369,18 +371,22 @@
   <si>
     <t>{"status":0,"stat":["20102",["2001",{"code":"20102"}]],"data":null,"msg":"服务器异常"}</t>
   </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,146 +413,16 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -559,194 +435,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -769,336 +459,54 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+  <cellStyleXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="11">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="2">
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="8" name="超链接" xfId="1"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1109,10 +517,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1270,7 +678,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1279,13 +687,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1295,7 +703,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1304,7 +712,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1313,7 +721,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1323,12 +731,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1359,7 +767,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1378,34 +786,34 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.1111111111111" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.8888888888889" style="2" customWidth="1"/>
-    <col min="4" max="4" width="91.2222222222222" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="13.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="22.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="13.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="91.21875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.05" customHeight="1" spans="1:5">
+    <row customHeight="1" ht="28.05" r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1422,9 +830,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="5">
-        <v>1</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1436,9 +844,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2">
-        <v>2</v>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1450,9 +858,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2">
-        <v>3</v>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -1464,9 +872,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2">
-        <v>4</v>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -1478,9 +886,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="5">
-        <v>5</v>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -1492,9 +900,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2">
-        <v>6</v>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -1505,10 +913,13 @@
       <c r="D7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2">
-        <v>7</v>
+      <c r="G7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -1520,9 +931,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2">
-        <v>8</v>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
@@ -1534,9 +945,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="5">
-        <v>9</v>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1548,9 +959,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2">
-        <v>10</v>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1562,9 +973,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2">
-        <v>11</v>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
@@ -1576,9 +987,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2">
-        <v>12</v>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -1590,7 +1001,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1605,36 +1016,35 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://119.23.241.154:8080/futureloan/mvc/api/member/register" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register"/>
+    <hyperlink r:id="rId1" ref="D2" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7777777777778" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.2222222222222" style="2" customWidth="1"/>
-    <col min="3" max="3" width="71.5555555555556" style="3" customWidth="1"/>
-    <col min="4" max="4" width="68.2222222222222" style="3" customWidth="1"/>
-    <col min="5" max="5" width="73.3333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="133" style="1" customWidth="1"/>
-    <col min="7" max="7" width="43.5555555555556" style="3" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="21.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="17.21875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="71.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="68.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="137.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="133.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="43.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" spans="1:7">
+    <row customHeight="1" ht="18" r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
@@ -1657,7 +1067,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>40</v>
       </c>
@@ -1673,14 +1083,12 @@
       <c r="E2" t="s">
         <v>43</v>
       </c>
-      <c r="F2" t="s">
-        <v>44</v>
-      </c>
+      <c r="F2"/>
       <c r="G2" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
@@ -1696,14 +1104,12 @@
       <c r="E3" t="s">
         <v>43</v>
       </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
+      <c r="F3"/>
       <c r="G3" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>46</v>
       </c>
@@ -1717,12 +1123,10 @@
         <v>48</v>
       </c>
       <c r="E4"/>
-      <c r="F4" t="s">
-        <v>48</v>
-      </c>
+      <c r="F4"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" customFormat="1" spans="1:7">
+    <row customFormat="1" r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
@@ -1735,12 +1139,9 @@
       <c r="D5" t="s">
         <v>51</v>
       </c>
-      <c r="F5" t="s">
-        <v>51</v>
-      </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" customFormat="1" spans="1:7">
+    <row customFormat="1" r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>52</v>
       </c>
@@ -1753,12 +1154,9 @@
       <c r="D6" t="s">
         <v>54</v>
       </c>
-      <c r="F6" t="s">
-        <v>54</v>
-      </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" customFormat="1" spans="1:7">
+    <row customFormat="1" r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>55</v>
       </c>
@@ -1771,12 +1169,9 @@
       <c r="D7" t="s">
         <v>57</v>
       </c>
-      <c r="F7" t="s">
-        <v>57</v>
-      </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" customFormat="1" spans="1:7">
+    <row customFormat="1" r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>58</v>
       </c>
@@ -1796,7 +1191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="1:7">
+    <row customFormat="1" r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>62</v>
       </c>
@@ -1811,7 +1206,7 @@
       </c>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" customFormat="1" spans="1:7">
+    <row customFormat="1" r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>65</v>
       </c>
@@ -1828,7 +1223,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" customFormat="1" spans="1:7">
+    <row customFormat="1" r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>68</v>
       </c>
@@ -1849,7 +1244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:7">
+    <row customFormat="1" r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1872,50 +1267,49 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F12"/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="F3:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F3:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="2.33333333333333" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="9" style="1" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="107.666666666667" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" style="1" width="2.33203125" collapsed="true"/>
+    <col min="3" max="5" customWidth="true" hidden="true" style="1" width="9.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="107.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="3" spans="6:6">
+    <row r="3" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="6:6">
+    <row r="4" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="6:6">
+    <row r="5" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="6:6">
+    <row r="6" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins bottom="1" footer="0.51180555555555596" header="0.51180555555555596" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>